--- a/biology/Médecine/Syndrome_dissociatif/Syndrome_dissociatif.xlsx
+++ b/biology/Médecine/Syndrome_dissociatif/Syndrome_dissociatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome dissociatif est un syndrome exprimant une forme de désorganisation psychique initialement modélisée dans sa forme moderne par Pierre Janet[réf. nécessaire], puis décrite ultérieurement sous d'autres paradigmes dans la schizophrénie.
 Après avoir été intégré à la recherche clinique par les travaux pionniers de Pierre Janet dès 1886, le terme « dissociation » est ensuite revenu en France par l'intermédiaire de la traduction de l'allemand Spaltung (Eugène Bleuler), qui signifie « division, déchirure ».[réf. nécessaire]
@@ -516,11 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Troubles schizophréniques
-La dissociation est alors souvent permanente. Elle s'associe fréquemment, mais à tort, à deux autres axes cliniques : le syndrome délirant, essentiellement hallucinatoire, et le syndrome autistique, erreur qui cause malheureusement encore aujourd'hui beaucoup d'erreurs de diagnostics. Les troubles du spectre de l'autisme n'ont absolument rien à voir avec les troubles schizophréniques, on le sait aujourd'hui. La psychiatrie française considère le syndrome dissociatif comme trouble cardinal de la schizophrénie (c'est-à-dire qu'il est toujours présent, pour ne pas dire causal)[1].
-États transitoires
-Troubles de la vigilance, états post-traumatiques aigus, anxiété majeure, prises de toxiques (cannabis, LSD…).
-La dissociation anxieuse se voit par exemple fréquemment après une catastrophe naturelle ou un accident de voiture. Moins tragiquement, cet état est voisin de celui de l'amoureux transi qui, au moment de déclarer sa flamme à l'élu-e de son cœur, se met à dire n'importe quoi puis s'en va en courant. On peut dire qu'il était dans un état de dissociation anxieuse.
+          <t>Troubles schizophréniques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissociation est alors souvent permanente. Elle s'associe fréquemment, mais à tort, à deux autres axes cliniques : le syndrome délirant, essentiellement hallucinatoire, et le syndrome autistique, erreur qui cause malheureusement encore aujourd'hui beaucoup d'erreurs de diagnostics. Les troubles du spectre de l'autisme n'ont absolument rien à voir avec les troubles schizophréniques, on le sait aujourd'hui. La psychiatrie française considère le syndrome dissociatif comme trouble cardinal de la schizophrénie (c'est-à-dire qu'il est toujours présent, pour ne pas dire causal).
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>États transitoires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Troubles de la vigilance, états post-traumatiques aigus, anxiété majeure, prises de toxiques (cannabis, LSD…).
+La dissociation anxieuse se voit par exemple fréquemment après une catastrophe naturelle ou un accident de voiture. Moins tragiquement, cet état est voisin de celui de l'amoureux transi qui, au moment de déclarer sa flamme à l'élu-e de son cœur, se met à dire n'importe quoi puis s'en va en courant. On peut dire qu'il était dans un état de dissociation anxieuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_dissociatif</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_dissociatif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les symptômes peuvent concerner trois sphères différentes :
 « idéo-verbale » : les propos et leurs liens logiques sont désorganisés, hermétiques. On parle de « discordance » en cas de franche impénétrabilité, ou de « diffluence » (ou « pensée tangentielle ») lorsque le discours zigzague entre des sujets sans connexion apparente. Bien que cela puisse s'assimiler à du délire, lorsqu'il est aussi prolixe, le discours schizophrène peut comporter une forte consonance poétique ;
@@ -558,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Syndrome_dissociatif</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_dissociatif</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neuroleptiques (antipsychotiques) sont souvent peu efficaces sur le syndrome dissociatif.
 La remédiation cognitive est une technique cognitivo-comportementale censée avoir un effet sur les éléments dissociatifs.
